--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -1,90 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125930D-286B-47FF-BD9B-5E9A0AC22B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-28057</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27926</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27927</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27928</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27929</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27931</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27932</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27933</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-28178</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-997</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-998</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,24 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -383,90 +411,881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col width="39.5703125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>JIRA ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-28057</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27926</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27927</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27928</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27929</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27931</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27932</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27933</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-28178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-998</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://jira.jnj.com/browse/AADF-27931" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://jira.jnj.com/browse/AADF-27931" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" display="https://jira.jnj.com/browse/AADF-27926" r:id="rId3"/>
+    <hyperlink ref="A5" display="https://jira.jnj.com/browse/AADF-27926" r:id="rId4"/>
+    <hyperlink ref="A6" display="https://jira.jnj.com/browse/AADF-27926" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" display="https://jira.jnj.com/browse/AADF-27931" r:id="rId7"/>
+    <hyperlink ref="A9" display="https://jira.jnj.com/browse/AADF-27931" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Affected Version</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Fix Version</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Story Point</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Acceptance Criteria</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Approval Workflow</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Asignee/Reporter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-28057</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27926</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27927</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27928</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27929</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27931</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27932</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-27933</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AADF-28178</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Update the Epic link</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-997</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Update the Epic link</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Update the type as Story</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Update the Affected version</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Update the fix version</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Add the acceptance criteria</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>Update the assignee Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-998</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Update the Epic link</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Add the acceptance criteria</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>Update the assignee Name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19100" windowHeight="9020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -419,7 +419,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,16 @@
           <t>Asignee/Reporter</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sprint</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -664,6 +674,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -726,6 +746,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,6 +818,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -850,6 +890,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -912,6 +962,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -974,6 +1034,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1036,6 +1106,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1098,6 +1178,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1250,16 @@
           <t>Passed</t>
         </is>
       </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1222,6 +1322,16 @@
           <t>Update the assignee Name</t>
         </is>
       </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1282,6 +1392,16 @@
       <c r="L12" s="3" t="inlineStr">
         <is>
           <t>Update the assignee Name</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>Add Due Date</t>
         </is>
       </c>
     </row>

--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19100" windowHeight="9020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -416,15 +416,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="39.5703125" customWidth="1" min="1" max="1"/>
+    <col width="39.54296875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,13 +499,6 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/browse/JCVZ-997</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>https://jira.jnj.com/browse/JCVZ-998</t>
         </is>
@@ -533,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,11 +600,6 @@
           <t>Sprint</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -679,11 +667,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -751,11 +734,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -823,11 +801,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -895,11 +868,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -967,11 +935,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1039,11 +1002,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1111,11 +1069,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1183,11 +1136,6 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1255,16 +1203,11 @@
           <t>Passed</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://jira.jnj.com/browse/JCVZ-997</t>
+          <t>https://jira.jnj.com/browse/JCVZ-998</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1277,19 +1220,19 @@
           <t>Update the Epic link</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Update the type as Story</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Update the Affected version</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Update the fix version</t>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -1325,83 +1268,6 @@
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://jira.jnj.com/browse/JCVZ-998</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Update the Epic link</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Add the Story Point</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Add the acceptance criteria</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>Update the approval Workflow</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>Update the assignee Name</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>Add Due Date</t>
         </is>
       </c>
     </row>

--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -1,71 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4B6C9-18E6-47EC-843B-396393685BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE864E-C058-4443-9A25-ACD6C568BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>JIRA ID</t>
   </si>
   <si>
-    <t>https://jira.jnj.com/browse/AADF-28057</t>
+    <t>https://jira.jnj.com/browse/JCVZ-998</t>
   </si>
   <si>
-    <t>https://jira.jnj.com/browse/AADF-27926</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27927</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27928</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27929</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27931</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27932</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-27933</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AADF-28178</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-998</t>
+    <t>https://jira.jnj.com/browse/JCVZ-1035</t>
   </si>
 </sst>
 </file>
@@ -394,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,57 +383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://jira.jnj.com/browse/AADF-27926" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://jira.jnj.com/browse/AADF-27931" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://jira.jnj.com/browse/AADF-27931" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE864E-C058-4443-9A25-ACD6C568BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52123FF8-FE69-40BB-AC0E-0504884CA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 

--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -1,76 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52123FF8-FE69-40BB-AC0E-0504884CA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-998</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-1035</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,24 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,37 +411,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col width="39.54296875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>JIRA ID</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-729</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-998</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-1035</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Affected Version</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Fix Version</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Story Point</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Acceptance Criteria</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Approval Workflow</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Asignee/Reporter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-729</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Update Sprint Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-998</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-1035</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>Update the approval Workflow</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>Update Sprint Details</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Config/DOR_Check.xlsx
+++ b/Config/DOR_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856BC78A-451D-4FEA-9B08-D069D5A5A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6665B2-59FA-47CC-BCD6-854F0C764265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20490" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="1170" windowWidth="19875" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -33,36 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>JIRA ID</t>
   </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-729</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-998</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-1035</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,16 +68,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,43 +353,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>